--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed5/result_data_KNN.xlsx
@@ -586,13 +586,13 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.001999999999999</v>
+        <v>5.852</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.050000000000001</v>
+        <v>-7.549999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.516</v>
+        <v>5.090000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.524000000000001</v>
+        <v>-8.422000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>4.912000000000001</v>
+        <v>5.424</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,13 +824,13 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.454</v>
+        <v>5.88</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.931999999999999</v>
+        <v>-8.198</v>
       </c>
     </row>
     <row r="29">
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.522</v>
+        <v>6.032000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -880,13 +880,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.086</v>
+        <v>6.063</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.172000000000001</v>
+        <v>-7.689</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.014000000000001</v>
+        <v>-8.333</v>
       </c>
     </row>
     <row r="35">
@@ -936,13 +936,13 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.975999999999999</v>
+        <v>8.431000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.513000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.148</v>
+        <v>-8.190000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.968</v>
+        <v>6.247000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.164000000000001</v>
+        <v>-8.286999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.061999999999999</v>
+        <v>6.259</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.564000000000002</v>
+        <v>-8.330000000000002</v>
       </c>
     </row>
     <row r="50">
@@ -1188,13 +1188,13 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.192</v>
+        <v>4.796</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.44</v>
+        <v>-8.168000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.722</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.356</v>
+        <v>4.654000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.923999999999999</v>
+        <v>5.516</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.923999999999999</v>
+        <v>5.366999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.683999999999999</v>
+        <v>5.792999999999999</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.516</v>
+        <v>6.444000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.366</v>
+        <v>-8.382</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.489999999999998</v>
+        <v>-8.134</v>
       </c>
     </row>
     <row r="81">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.142</v>
+        <v>5.831</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.046</v>
+        <v>5.02</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.376</v>
+        <v>5.667000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.306</v>
+        <v>5.424000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.388</v>
+        <v>-7.106</v>
       </c>
     </row>
     <row r="98">
@@ -1818,13 +1818,13 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.438000000000001</v>
+        <v>4.76</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.244000000000002</v>
+        <v>-8.164</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.27</v>
+        <v>-7.962000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.378</v>
+        <v>-7.776999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>8.354000000000003</v>
+        <v>7.459000000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1902,7 +1902,7 @@
         <v>-20.36</v>
       </c>
       <c r="B105" t="n">
-        <v>8.9</v>
+        <v>8.617000000000001</v>
       </c>
       <c r="C105" t="n">
         <v>-12</v>
